--- a/test/fixtures/error.xlsx
+++ b/test/fixtures/error.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="66">
   <si>
     <t xml:space="preserve">First Name</t>
   </si>
@@ -215,6 +216,9 @@
   </si>
   <si>
     <t xml:space="preserve">19 First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdasd</t>
   </si>
 </sst>
 </file>
@@ -328,13 +332,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -346,37 +350,37 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8074074074074"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8888888888889"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0518518518519"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.0592592592593"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.7333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.3333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.4185185185185"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="42.3333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.4185185185185"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="37.237037037037"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.8074074074074"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="29.4962962962963"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="37.4333333333333"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="38.1185185185185"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="32.6333333333333"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="6.17407407407407"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="12.5444444444444"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.2444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.01481481481481"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="42.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="42.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="37.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="28.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="33.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="29.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="37.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="27.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="38.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="32.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="6.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="12.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="9.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,10 +1460,45 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>